--- a/efficiency-results_v2.xlsx
+++ b/efficiency-results_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ba5kv4\git\dissertation-experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C16764-9F88-42C3-B7DE-F47B7CE8B0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066AEF14-556D-4D68-8773-7D3D50F0E2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{25DE5334-8C91-426F-A24A-6E4284BCB023}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{25DE5334-8C91-426F-A24A-6E4284BCB023}"/>
   </bookViews>
   <sheets>
     <sheet name="Full" sheetId="1" r:id="rId1"/>
@@ -3960,22 +3960,6 @@
 [codecarbon INFO @ 10:52:24] 0.562822 kWh of electricity used since the beginning. </t>
   </si>
   <si>
-    <t xml:space="preserve">Processing took: 961.2001961909991
-[codecarbon INFO @ 22:22:27] Energy consumed for RAM : 0.005332 kWh. RAM Power : 20.0 W                      
-[codecarbon INFO @ 22:22:27] Delta energy consumed for CPU with constant : 0.000128 kWh, power : 32.5 W      
-[codecarbon INFO @ 22:22:27] Energy consumed for All CPU : 0.008665 kWh                                                                
-[codecarbon INFO @ 22:22:27] Energy consumed for all GPUs : 0.000000 kWh. Total GPU Power : 0.0 W            
-[codecarbon INFO @ 22:22:27] 0.013997 kWh of electricity used since the beginning.                           </t>
-  </si>
-  <si>
-    <t>Processing took: 339.32438441500017
-[codecarbon INFO @ 21:55:42] Energy consumed for RAM : 0.001877 kWh. RAM Power : 20.0 W
-[codecarbon INFO @ 21:55:42] Delta energy consumed for CPU with constant : 0.000070 kWh, power : 32.5 W      
-[codecarbon INFO @ 21:55:42] Energy consumed for All CPU : 0.003050 kWh
-[codecarbon INFO @ 21:55:42] Energy consumed for all GPUs : 0.000000 kWh. Total GPU Power : 0.0 W
-[codecarbon INFO @ 21:55:42] 0.004927 kWh of electricity used since the beginning.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Processing took: 71435.42540539999
 [codecarbon INFO @ 17:30:40] Energy consumed for RAM : 0.396795 kWh. RAM Power : 20.0 W 
 [codecarbon INFO @ 17:30:40] Delta energy consumed for CPU with constant : 0.001015 kWh, power : 260.0 W 
@@ -5272,6 +5256,22 @@
   </si>
   <si>
     <t>School Websites (10%)</t>
+  </si>
+  <si>
+    <t>Processing took: 961.2001961909991
+[codecarbon INFO @ 22:22:27] Energy consumed for RAM : 0.005332 kWh. RAM Power : 20.0 W
+[codecarbon INFO @ 22:22:27] Delta energy consumed for CPU with constant : 0.000128 kWh, power : 32.5 W
+[codecarbon INFO @ 22:22:27] Energy consumed for All CPU : 0.008665 kWh
+[codecarbon INFO @ 22:22:27] Energy consumed for all GPUs : 0.000000 kWh. Total GPU Power : 0.0 W
+[codecarbon INFO @ 22:22:27] 0.013997 kWh of electricity used since the beginning.</t>
+  </si>
+  <si>
+    <t>Processing took: 339.32438441500017
+[codecarbon INFO @ 21:55:42] Energy consumed for RAM : 0.001877 kWh. RAM Power : 20.0 W
+[codecarbon INFO @ 21:55:42] Delta energy consumed for CPU with constant : 0.000070 kWh, power : 32.5 W
+[codecarbon INFO @ 21:55:42] Energy consumed for All CPU : 0.003050 kWh
+[codecarbon INFO @ 21:55:42] Energy consumed for all GPUs : 0.000000 kWh. Total GPU Power : 0.0 W
+[codecarbon INFO @ 21:55:42] 0.004927 kWh of electricity used since the beginning.</t>
   </si>
 </sst>
 </file>
@@ -5339,7 +5339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1"/>
@@ -5355,11 +5355,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Ergebnis" xfId="1" builtinId="25"/>
@@ -5697,9 +5692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6EA777-CF04-4C7B-A34F-611A2B3B8ABF}">
   <dimension ref="A1:S146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9243,46 +9236,46 @@
         <v>148</v>
       </c>
     </row>
-    <row r="68" spans="1:19" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
+    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>126</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" t="s">
         <v>140</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" t="s">
         <v>137</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68" s="3">
         <v>46028</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="E68" t="s">
         <v>41</v>
       </c>
-      <c r="F68" s="9" t="s">
+      <c r="F68" t="s">
         <v>48</v>
       </c>
-      <c r="G68" s="9" t="str">
+      <c r="G68" t="str">
         <f>"/code/TS2-"&amp;E68&amp;"/mixtral"</f>
         <v>/code/TS2-S2/mixtral</v>
       </c>
-      <c r="H68" s="9" t="s">
+      <c r="H68" t="s">
         <v>128</v>
       </c>
-      <c r="I68" s="9" t="str">
+      <c r="I68" t="str">
         <f t="shared" si="3"/>
         <v>/output/TS2/S2/Mistral/GPU</v>
       </c>
-      <c r="J68" s="9">
+      <c r="J68">
         <v>71435.425405399903</v>
       </c>
-      <c r="K68" s="9">
+      <c r="K68">
         <v>5.5552609999999998</v>
       </c>
-      <c r="L68" s="9">
+      <c r="L68">
         <v>5.1584659999999998</v>
       </c>
-      <c r="M68" s="9">
+      <c r="M68">
         <v>260</v>
       </c>
       <c r="N68" t="s">
@@ -9291,17 +9284,17 @@
       <c r="O68" t="s">
         <v>25</v>
       </c>
-      <c r="P68" s="9">
+      <c r="P68">
         <v>0.39679500000000001</v>
       </c>
-      <c r="Q68" s="9">
-        <v>20</v>
-      </c>
-      <c r="R68" s="11" t="s">
-        <v>788</v>
-      </c>
-      <c r="S68" s="9" t="s">
-        <v>789</v>
+      <c r="Q68">
+        <v>20</v>
+      </c>
+      <c r="R68" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="S68" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11866,65 +11859,65 @@
         <v>242</v>
       </c>
     </row>
-    <row r="116" spans="1:19" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="9" t="s">
+    <row r="116" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>164</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B116" t="s">
         <v>202</v>
       </c>
-      <c r="C116" s="9" t="s">
+      <c r="C116" t="s">
         <v>191</v>
       </c>
-      <c r="D116" s="10">
+      <c r="D116" s="3">
         <v>45973</v>
       </c>
-      <c r="E116" s="9" t="s">
+      <c r="E116" t="s">
         <v>41</v>
       </c>
-      <c r="F116" s="9" t="s">
+      <c r="F116" t="s">
         <v>48</v>
       </c>
-      <c r="G116" s="9" t="str">
+      <c r="G116" t="str">
         <f t="shared" si="7"/>
         <v>/code/TS3-S2/mistralnemo</v>
       </c>
-      <c r="H116" s="9" t="s">
+      <c r="H116" t="s">
         <v>172</v>
       </c>
-      <c r="I116" s="9" t="str">
+      <c r="I116" t="str">
         <f t="shared" si="3"/>
         <v>/output/TS3/S2/Mistral Nemo/GPU</v>
       </c>
-      <c r="J116" s="9">
-        <v>339.324384415</v>
-      </c>
-      <c r="K116" s="9">
-        <v>4.927E-3</v>
-      </c>
-      <c r="L116" s="9">
-        <v>3.0500000000000002E-3</v>
-      </c>
-      <c r="M116" s="9">
+      <c r="J116">
+        <v>961.20019619099901</v>
+      </c>
+      <c r="K116">
+        <v>1.3997000000000001E-2</v>
+      </c>
+      <c r="L116">
+        <v>8.6650000000000008E-3</v>
+      </c>
+      <c r="M116">
         <v>32.5</v>
       </c>
-      <c r="N116" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O116" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P116" s="9">
-        <v>1.877E-3</v>
-      </c>
-      <c r="Q116" s="9">
-        <v>20</v>
-      </c>
-      <c r="R116" s="11" t="s">
-        <v>787</v>
-      </c>
-      <c r="S116" s="9" t="s">
-        <v>246</v>
+      <c r="N116" t="s">
+        <v>25</v>
+      </c>
+      <c r="O116" t="s">
+        <v>25</v>
+      </c>
+      <c r="P116">
+        <v>5.3319999999999999E-3</v>
+      </c>
+      <c r="Q116">
+        <v>20</v>
+      </c>
+      <c r="R116" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="S116" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="117" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11988,65 +11981,65 @@
         <v>245</v>
       </c>
     </row>
-    <row r="118" spans="1:19" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="9" t="s">
+    <row r="118" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>164</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" t="s">
         <v>202</v>
       </c>
-      <c r="C118" s="9" t="s">
+      <c r="C118" t="s">
         <v>191</v>
       </c>
-      <c r="D118" s="10">
+      <c r="D118" s="3">
         <v>45973</v>
       </c>
-      <c r="E118" s="9" t="s">
+      <c r="E118" t="s">
         <v>41</v>
       </c>
-      <c r="F118" s="9" t="s">
+      <c r="F118" t="s">
         <v>48</v>
       </c>
-      <c r="G118" s="9" t="str">
+      <c r="G118" t="str">
         <f t="shared" si="7"/>
         <v>/code/TS3-S2/mistralnemo</v>
       </c>
-      <c r="H118" s="9" t="s">
+      <c r="H118" t="s">
         <v>175</v>
       </c>
-      <c r="I118" s="9" t="str">
+      <c r="I118" t="str">
         <f t="shared" si="3"/>
         <v>/output/TS3/S2/Mistral Nemo/GPU</v>
       </c>
-      <c r="J118" s="9">
-        <v>961.20019619099901</v>
-      </c>
-      <c r="K118" s="9">
-        <v>1.3997000000000001E-2</v>
-      </c>
-      <c r="L118" s="9">
-        <v>8.6650000000000008E-3</v>
-      </c>
-      <c r="M118" s="9">
+      <c r="J118">
+        <v>339.324384415</v>
+      </c>
+      <c r="K118">
+        <v>4.927E-3</v>
+      </c>
+      <c r="L118">
+        <v>3.0500000000000002E-3</v>
+      </c>
+      <c r="M118">
         <v>32.5</v>
       </c>
-      <c r="N118" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O118" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P118" s="9">
-        <v>5.3319999999999999E-3</v>
-      </c>
-      <c r="Q118" s="9">
-        <v>20</v>
-      </c>
-      <c r="R118" s="11" t="s">
-        <v>786</v>
-      </c>
-      <c r="S118" s="9" t="s">
-        <v>243</v>
+      <c r="N118" t="s">
+        <v>25</v>
+      </c>
+      <c r="O118" t="s">
+        <v>25</v>
+      </c>
+      <c r="P118">
+        <v>1.877E-3</v>
+      </c>
+      <c r="Q118">
+        <v>20</v>
+      </c>
+      <c r="R118" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="S118" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="119" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13705,9 +13698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0245215C-0053-4438-A7B2-4391DEABAE3A}">
   <dimension ref="A1:S96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13755,7 +13746,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>302</v>
@@ -13812,7 +13803,7 @@
         <v>/code/NLG-S1/markov</v>
       </c>
       <c r="G2" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H2">
         <v>4984.2015293429904</v>
@@ -13872,7 +13863,7 @@
         <v>/code/NLG-S1/markov</v>
       </c>
       <c r="G3" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H3">
         <v>4984.2015293429904</v>
@@ -13932,7 +13923,7 @@
         <v>/code/NLG-S1/markov</v>
       </c>
       <c r="G4" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H4">
         <v>4984.2015293429904</v>
@@ -13992,7 +13983,7 @@
         <v>/code/NLG-S1/markov</v>
       </c>
       <c r="G5" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H5">
         <v>2263.8543004580001</v>
@@ -14052,7 +14043,7 @@
         <v>/code/NLG-S1/markov</v>
       </c>
       <c r="G6" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H6">
         <v>2263.8543004580001</v>
@@ -14112,7 +14103,7 @@
         <v>/code/NLG-S1/markov</v>
       </c>
       <c r="G7" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H7">
         <v>2263.8543004580001</v>
@@ -14172,7 +14163,7 @@
         <v>/code/NLG-S1/lstm</v>
       </c>
       <c r="G8" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H8">
         <v>157303.75823425999</v>
@@ -14232,7 +14223,7 @@
         <v>/code/NLG-S1/lstm</v>
       </c>
       <c r="G9" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H9">
         <v>157303.75823425999</v>
@@ -14292,7 +14283,7 @@
         <v>/code/NLG-S1/lstm</v>
       </c>
       <c r="G10" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H10">
         <v>157303.75823425999</v>
@@ -14352,7 +14343,7 @@
         <v>/code/NLG-S1/gpt</v>
       </c>
       <c r="G11" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H11">
         <v>15827.897751050001</v>
@@ -14412,7 +14403,7 @@
         <v>/code/NLG-S1/gpt</v>
       </c>
       <c r="G12" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H12">
         <v>15827.897751050001</v>
@@ -14472,7 +14463,7 @@
         <v>/code/NLG-S1/gpt</v>
       </c>
       <c r="G13" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H13">
         <v>15827.897751050001</v>
@@ -14532,7 +14523,7 @@
         <v>/code/NLG-S1/gptfine</v>
       </c>
       <c r="G14" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H14">
         <v>17448.705827144</v>
@@ -14592,7 +14583,7 @@
         <v>/code/NLG-S1/gptfine</v>
       </c>
       <c r="G15" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H15">
         <v>17448.705827144</v>
@@ -14652,7 +14643,7 @@
         <v>/code/NLG-S1/gptfine</v>
       </c>
       <c r="G16" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H16">
         <v>17448.705827144</v>
@@ -14712,7 +14703,7 @@
         <v>/code/TS1-S1</v>
       </c>
       <c r="G18" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H18">
         <v>564.13770877399998</v>
@@ -14772,7 +14763,7 @@
         <v>/code/TS1-S1</v>
       </c>
       <c r="G19" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H19">
         <v>564.13770877399998</v>
@@ -14832,7 +14823,7 @@
         <v>/code/TS1-S1</v>
       </c>
       <c r="G20" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H20">
         <v>564.13770877399998</v>
@@ -14892,7 +14883,7 @@
         <v>/code/TS1-S1</v>
       </c>
       <c r="G21" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H21">
         <v>484.04559379800003</v>
@@ -14952,7 +14943,7 @@
         <v>/code/TS1-S1</v>
       </c>
       <c r="G22" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H22">
         <v>484.04559379800003</v>
@@ -15012,7 +15003,7 @@
         <v>/code/TS1-S1</v>
       </c>
       <c r="G23" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H23">
         <v>484.04559379800003</v>
@@ -15072,7 +15063,7 @@
         <v>/code/TS1-S1</v>
       </c>
       <c r="G24" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H24">
         <v>7079.7220896150002</v>
@@ -15132,7 +15123,7 @@
         <v>/code/TS1-S1</v>
       </c>
       <c r="G25" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H25">
         <v>7079.7220896150002</v>
@@ -15192,7 +15183,7 @@
         <v>/code/TS1-S1</v>
       </c>
       <c r="G26" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H26">
         <v>7079.7220896150002</v>
@@ -15252,7 +15243,7 @@
         <v>/code/TS1-S1</v>
       </c>
       <c r="G27" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H27">
         <v>14929.561005467</v>
@@ -15312,7 +15303,7 @@
         <v>/code/TS1-S1</v>
       </c>
       <c r="G28" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H28">
         <v>14929.561005467</v>
@@ -15372,7 +15363,7 @@
         <v>/code/TS1-S1</v>
       </c>
       <c r="G29" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H29">
         <v>14929.561005467</v>
@@ -15432,7 +15423,7 @@
         <v>/code/TS1-S1</v>
       </c>
       <c r="G30" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H30">
         <v>7131.1244575170003</v>
@@ -15492,7 +15483,7 @@
         <v>/code/TS1-S1</v>
       </c>
       <c r="G31" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H31">
         <v>7131.1244575170003</v>
@@ -15552,7 +15543,7 @@
         <v>/code/TS1-S1</v>
       </c>
       <c r="G32" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H32">
         <v>7131.1244575170003</v>
@@ -15612,7 +15603,7 @@
         <v>/code/TS1-S1</v>
       </c>
       <c r="G33" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H33">
         <v>6648.1765063450002</v>
@@ -15672,7 +15663,7 @@
         <v>/code/TS1-S1</v>
       </c>
       <c r="G34" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H34">
         <v>6648.1765063450002</v>
@@ -15732,7 +15723,7 @@
         <v>/code/TS1-S1</v>
       </c>
       <c r="G35" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H35">
         <v>6648.1765063450002</v>
@@ -15792,7 +15783,7 @@
         <v>/code/TS2-S1/lex</v>
       </c>
       <c r="G38" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H38">
         <v>91.010171515997996</v>
@@ -15852,7 +15843,7 @@
         <v>/code/TS2-S1/lex</v>
       </c>
       <c r="G39" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H39">
         <v>91.010171515997996</v>
@@ -15912,7 +15903,7 @@
         <v>/code/TS2-S1/lex</v>
       </c>
       <c r="G40" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H40">
         <v>91.010171515997996</v>
@@ -15972,7 +15963,7 @@
         <v>/code/TS2-S1/bert2bert</v>
       </c>
       <c r="G41" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H41">
         <v>3048.9736754629998</v>
@@ -16032,7 +16023,7 @@
         <v>/code/TS2-S1/bert2bert</v>
       </c>
       <c r="G42" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H42">
         <v>3048.9736754629998</v>
@@ -16092,7 +16083,7 @@
         <v>/code/TS2-S1/bert2bert</v>
       </c>
       <c r="G43" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H43">
         <v>3048.9736754629998</v>
@@ -16152,7 +16143,7 @@
         <v>/code/TS2-S1/mlong</v>
       </c>
       <c r="G44" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H44">
         <v>57275.8886862379</v>
@@ -16212,7 +16203,7 @@
         <v>/code/TS2-S1/mlong</v>
       </c>
       <c r="G45" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H45">
         <v>57275.8886862379</v>
@@ -16272,7 +16263,7 @@
         <v>/code/TS2-S1/mlong</v>
       </c>
       <c r="G46" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H46">
         <v>57275.8886862379</v>
@@ -16332,7 +16323,7 @@
         <v>/code/TS2-S1/mixtral</v>
       </c>
       <c r="G47" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H47">
         <v>252902.22868269999</v>
@@ -16392,7 +16383,7 @@
         <v>/code/TS2-S1/mixtral</v>
       </c>
       <c r="G48" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H48">
         <v>252902.22868269999</v>
@@ -16452,7 +16443,7 @@
         <v>/code/TS2-S1/mixtral</v>
       </c>
       <c r="G49" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H49">
         <v>252902.22868269999</v>
@@ -19200,9 +19191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB7E470-6D74-4EFC-BBBF-EDAB8A29B8F4}">
   <dimension ref="A1:S159"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19250,7 +19239,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>302</v>
@@ -19307,7 +19296,7 @@
         <v>/code/NLG-S2/markov</v>
       </c>
       <c r="G2" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H2">
         <v>4567.2609024040003</v>
@@ -19340,10 +19329,10 @@
         <v>20</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="S2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19367,7 +19356,7 @@
         <v>/code/NLG-S2/markov</v>
       </c>
       <c r="G3" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H3">
         <v>4567.2609024040003</v>
@@ -19400,10 +19389,10 @@
         <v>20</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="S3" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19427,7 +19416,7 @@
         <v>/code/NLG-S2/markov</v>
       </c>
       <c r="G4" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H4">
         <v>4567.2609024040003</v>
@@ -19460,10 +19449,10 @@
         <v>20</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="S4" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19487,7 +19476,7 @@
         <v>/code/NLG-S2/markov</v>
       </c>
       <c r="G5" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H5">
         <v>1977.0896353989999</v>
@@ -19520,10 +19509,10 @@
         <v>20</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="S5" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19547,7 +19536,7 @@
         <v>/code/NLG-S2/markov</v>
       </c>
       <c r="G6" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H6">
         <v>1977.0896353989999</v>
@@ -19580,10 +19569,10 @@
         <v>20</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="S6" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19607,7 +19596,7 @@
         <v>/code/NLG-S2/markov</v>
       </c>
       <c r="G7" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H7">
         <v>1977.0896353989999</v>
@@ -19640,10 +19629,10 @@
         <v>20</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="S7" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19667,7 +19656,7 @@
         <v>/code/NLG-S2/lstm</v>
       </c>
       <c r="G8" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H8">
         <v>237867.69753862199</v>
@@ -19700,10 +19689,10 @@
         <v>20</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="S8" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19727,7 +19716,7 @@
         <v>/code/NLG-S2/lstm</v>
       </c>
       <c r="G9" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H9">
         <v>237867.69753862199</v>
@@ -19760,10 +19749,10 @@
         <v>20</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="S9" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19787,7 +19776,7 @@
         <v>/code/NLG-S2/lstm</v>
       </c>
       <c r="G10" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H10">
         <v>237867.69753862199</v>
@@ -19820,10 +19809,10 @@
         <v>20</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="S10" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20015,7 +20004,7 @@
         <v>/code/NLG-S2/gpt</v>
       </c>
       <c r="G14" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H14">
         <v>16105.576718984999</v>
@@ -20048,10 +20037,10 @@
         <v>20</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="S14" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20075,7 +20064,7 @@
         <v>/code/NLG-S2/gpt</v>
       </c>
       <c r="G15" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H15">
         <v>16105.576718984999</v>
@@ -20108,10 +20097,10 @@
         <v>20</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="S15" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20135,7 +20124,7 @@
         <v>/code/NLG-S2/gpt</v>
       </c>
       <c r="G16" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H16">
         <v>16105.576718984999</v>
@@ -20168,10 +20157,10 @@
         <v>20</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="S16" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20363,7 +20352,7 @@
         <v>/code/NLG-S2/gptfine</v>
       </c>
       <c r="G20" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H20">
         <v>20598.329889625002</v>
@@ -20396,10 +20385,10 @@
         <v>20</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="S20" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20423,7 +20412,7 @@
         <v>/code/NLG-S2/gptfine</v>
       </c>
       <c r="G21" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H21">
         <v>20598.329889625002</v>
@@ -20456,10 +20445,10 @@
         <v>20</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="S21" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20483,7 +20472,7 @@
         <v>/code/NLG-S2/gptfine</v>
       </c>
       <c r="G22" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H22">
         <v>20598.329889625002</v>
@@ -20516,10 +20505,10 @@
         <v>20</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="S22" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20713,7 +20702,7 @@
         <v>/code/TS1-S2</v>
       </c>
       <c r="G28" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H28">
         <v>326.54838716499899</v>
@@ -20746,10 +20735,10 @@
         <v>20</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="S28" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20773,7 +20762,7 @@
         <v>/code/TS1-S2</v>
       </c>
       <c r="G29" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H29">
         <v>326.54838716499899</v>
@@ -20806,10 +20795,10 @@
         <v>20</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="S29" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20833,7 +20822,7 @@
         <v>/code/TS1-S2</v>
       </c>
       <c r="G30" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H30">
         <v>326.54838716499899</v>
@@ -20866,10 +20855,10 @@
         <v>20</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="S30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20893,7 +20882,7 @@
         <v>/code/TS1-S2</v>
       </c>
       <c r="G31" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H31">
         <v>331.02125157599897</v>
@@ -20926,10 +20915,10 @@
         <v>20</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="S31" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20953,7 +20942,7 @@
         <v>/code/TS1-S2</v>
       </c>
       <c r="G32" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H32">
         <v>331.02125157599897</v>
@@ -20986,10 +20975,10 @@
         <v>20</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="S32" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21013,7 +21002,7 @@
         <v>/code/TS1-S2</v>
       </c>
       <c r="G33" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H33">
         <v>331.02125157599897</v>
@@ -21046,10 +21035,10 @@
         <v>20</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="S33" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21073,7 +21062,7 @@
         <v>/code/TS1-S2</v>
       </c>
       <c r="G34" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H34">
         <v>5982.8164165639901</v>
@@ -21106,10 +21095,10 @@
         <v>20</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="S34" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21133,7 +21122,7 @@
         <v>/code/TS1-S2</v>
       </c>
       <c r="G35" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H35">
         <v>5982.8164165639901</v>
@@ -21166,10 +21155,10 @@
         <v>20</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="S35" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21193,7 +21182,7 @@
         <v>/code/TS1-S2</v>
       </c>
       <c r="G36" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H36">
         <v>5982.8164165639901</v>
@@ -21226,10 +21215,10 @@
         <v>20</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="S36" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21421,7 +21410,7 @@
         <v>/code/TS1-S2</v>
       </c>
       <c r="G40" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H40">
         <v>10913.523000450999</v>
@@ -21454,10 +21443,10 @@
         <v>20</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="S40" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21481,7 +21470,7 @@
         <v>/code/TS1-S2</v>
       </c>
       <c r="G41" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H41">
         <v>10913.523000450999</v>
@@ -21514,10 +21503,10 @@
         <v>20</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="S41" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21541,7 +21530,7 @@
         <v>/code/TS1-S2</v>
       </c>
       <c r="G42" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H42">
         <v>10913.523000450999</v>
@@ -21574,10 +21563,10 @@
         <v>20</v>
       </c>
       <c r="R42" s="4" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="S42" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21769,7 +21758,7 @@
         <v>/code/TS1-S2</v>
       </c>
       <c r="G46" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H46">
         <v>5920.4541860109903</v>
@@ -21802,10 +21791,10 @@
         <v>20</v>
       </c>
       <c r="R46" s="4" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="S46" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21829,7 +21818,7 @@
         <v>/code/TS1-S2</v>
       </c>
       <c r="G47" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H47">
         <v>5920.4541860109903</v>
@@ -21862,10 +21851,10 @@
         <v>20</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="S47" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21889,7 +21878,7 @@
         <v>/code/TS1-S2</v>
       </c>
       <c r="G48" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H48">
         <v>5920.4541860109903</v>
@@ -21922,10 +21911,10 @@
         <v>20</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="S48" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22117,7 +22106,7 @@
         <v>/code/TS1-S2</v>
       </c>
       <c r="G52" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H52">
         <v>5849.6244957059898</v>
@@ -22150,10 +22139,10 @@
         <v>20</v>
       </c>
       <c r="R52" s="4" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="S52" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22177,7 +22166,7 @@
         <v>/code/TS1-S2</v>
       </c>
       <c r="G53" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H53">
         <v>5849.6244957059898</v>
@@ -22210,10 +22199,10 @@
         <v>20</v>
       </c>
       <c r="R53" s="4" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="S53" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22237,7 +22226,7 @@
         <v>/code/TS1-S2</v>
       </c>
       <c r="G54" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H54">
         <v>5849.6244957059898</v>
@@ -22270,10 +22259,10 @@
         <v>20</v>
       </c>
       <c r="R54" s="4" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="S54" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22467,7 +22456,7 @@
         <v>/code/TS2-S2/lex</v>
       </c>
       <c r="G60" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H60">
         <v>98.863055540000005</v>
@@ -22500,10 +22489,10 @@
         <v>20</v>
       </c>
       <c r="R60" s="4" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="S60" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22527,7 +22516,7 @@
         <v>/code/TS2-S2/lex</v>
       </c>
       <c r="G61" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H61">
         <v>98.863055540000005</v>
@@ -22560,10 +22549,10 @@
         <v>20</v>
       </c>
       <c r="R61" s="4" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="S61" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22587,7 +22576,7 @@
         <v>/code/TS2-S2/lex</v>
       </c>
       <c r="G62" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H62">
         <v>98.863055540000005</v>
@@ -22620,10 +22609,10 @@
         <v>20</v>
       </c>
       <c r="R62" s="4" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="S62" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22647,7 +22636,7 @@
         <v>/code/TS2-S2/bert2bert</v>
       </c>
       <c r="G63" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H63">
         <v>2963.4571180989901</v>
@@ -22680,10 +22669,10 @@
         <v>20</v>
       </c>
       <c r="R63" s="4" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="S63" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22707,7 +22696,7 @@
         <v>/code/TS2-S2/bert2bert</v>
       </c>
       <c r="G64" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H64">
         <v>2963.4571180989901</v>
@@ -22740,10 +22729,10 @@
         <v>20</v>
       </c>
       <c r="R64" s="4" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="S64" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22767,7 +22756,7 @@
         <v>/code/TS2-S2/bert2bert</v>
       </c>
       <c r="G65" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H65">
         <v>2963.4571180989901</v>
@@ -22800,10 +22789,10 @@
         <v>20</v>
       </c>
       <c r="R65" s="4" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="S65" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22995,7 +22984,7 @@
         <v>/code/TS2-S2/mlong</v>
       </c>
       <c r="G69" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H69">
         <v>24335.959905432999</v>
@@ -23028,10 +23017,10 @@
         <v>20</v>
       </c>
       <c r="R69" s="4" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="S69" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -23055,7 +23044,7 @@
         <v>/code/TS2-S2/mlong</v>
       </c>
       <c r="G70" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H70">
         <v>24335.959905432999</v>
@@ -23088,10 +23077,10 @@
         <v>20</v>
       </c>
       <c r="R70" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="S70" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -23115,7 +23104,7 @@
         <v>/code/TS2-S2/mlong</v>
       </c>
       <c r="G71" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H71">
         <v>24335.959905432999</v>
@@ -23148,10 +23137,10 @@
         <v>20</v>
       </c>
       <c r="R71" s="4" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="S71" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -23343,7 +23332,7 @@
         <v>/code/TS2-S2/mixtral</v>
       </c>
       <c r="G75" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H75">
         <v>124585.94871110001</v>
@@ -23376,10 +23365,10 @@
         <v>20</v>
       </c>
       <c r="R75" s="4" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="S75" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -23403,7 +23392,7 @@
         <v>/code/TS2-S2/mixtral</v>
       </c>
       <c r="G76" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H76">
         <v>124585.94871110001</v>
@@ -23436,10 +23425,10 @@
         <v>20</v>
       </c>
       <c r="R76" s="4" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="S76" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -23463,7 +23452,7 @@
         <v>/code/TS2-S2/mixtral</v>
       </c>
       <c r="G77" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H77">
         <v>124585.94871110001</v>
@@ -23496,10 +23485,10 @@
         <v>20</v>
       </c>
       <c r="R77" s="4" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="S77" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -23523,7 +23512,7 @@
         <v>/code/TS2-S2/mixtral</v>
       </c>
       <c r="G78" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H78">
         <v>244465.04085329999</v>
@@ -23556,10 +23545,10 @@
         <v>20</v>
       </c>
       <c r="R78" s="4" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="S78" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -23583,7 +23572,7 @@
         <v>/code/TS2-S2/mixtral</v>
       </c>
       <c r="G79" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H79">
         <v>244465.04085329999</v>
@@ -23616,10 +23605,10 @@
         <v>20</v>
       </c>
       <c r="R79" s="4" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="S79" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -23643,7 +23632,7 @@
         <v>/code/TS2-S2/mixtral</v>
       </c>
       <c r="G80" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H80">
         <v>244465.04085329999</v>
@@ -23676,10 +23665,10 @@
         <v>20</v>
       </c>
       <c r="R80" s="4" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="S80" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -23738,10 +23727,10 @@
         <v>20</v>
       </c>
       <c r="R83" s="4" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="S83" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="84" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -23798,10 +23787,10 @@
         <v>20</v>
       </c>
       <c r="R84" s="4" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="S84" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="85" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -23858,10 +23847,10 @@
         <v>20</v>
       </c>
       <c r="R85" s="4" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="S85" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="86" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -23918,10 +23907,10 @@
         <v>20</v>
       </c>
       <c r="R86" s="4" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="S86" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="87" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -23978,10 +23967,10 @@
         <v>20</v>
       </c>
       <c r="R87" s="4" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="S87" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="88" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24038,10 +24027,10 @@
         <v>20</v>
       </c>
       <c r="R88" s="4" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="S88" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="89" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24098,10 +24087,10 @@
         <v>20</v>
       </c>
       <c r="R89" s="4" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="S89" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="90" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24158,10 +24147,10 @@
         <v>20</v>
       </c>
       <c r="R90" s="4" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="S90" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="91" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24218,10 +24207,10 @@
         <v>20</v>
       </c>
       <c r="R91" s="4" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="S91" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="92" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24278,10 +24267,10 @@
         <v>20</v>
       </c>
       <c r="R92" s="4" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="S92" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="93" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24338,10 +24327,10 @@
         <v>20</v>
       </c>
       <c r="R93" s="4" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="S93" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="94" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24398,10 +24387,10 @@
         <v>20</v>
       </c>
       <c r="R94" s="4" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="S94" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="95" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24458,10 +24447,10 @@
         <v>20</v>
       </c>
       <c r="R95" s="4" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="S95" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="96" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24518,10 +24507,10 @@
         <v>20</v>
       </c>
       <c r="R96" s="4" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="S96" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="97" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24578,10 +24567,10 @@
         <v>20</v>
       </c>
       <c r="R97" s="4" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="S97" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="98" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24638,10 +24627,10 @@
         <v>20</v>
       </c>
       <c r="R98" s="4" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="S98" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="99" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24698,10 +24687,10 @@
         <v>20</v>
       </c>
       <c r="R99" s="4" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="S99" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="100" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24758,10 +24747,10 @@
         <v>20</v>
       </c>
       <c r="R100" s="4" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="S100" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="101" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24818,10 +24807,10 @@
         <v>20</v>
       </c>
       <c r="R101" s="4" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="S101" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="102" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24878,10 +24867,10 @@
         <v>20</v>
       </c>
       <c r="R102" s="4" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="S102" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="103" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24938,10 +24927,10 @@
         <v>20</v>
       </c>
       <c r="R103" s="4" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="S103" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="104" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24998,10 +24987,10 @@
         <v>20</v>
       </c>
       <c r="R104" s="4" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="S104" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="105" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -25058,10 +25047,10 @@
         <v>20</v>
       </c>
       <c r="R105" s="4" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="S105" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="106" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -25118,10 +25107,10 @@
         <v>20</v>
       </c>
       <c r="R106" s="4" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="S106" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="107" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -25178,10 +25167,10 @@
         <v>20</v>
       </c>
       <c r="R107" s="4" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="S107" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="108" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -25238,10 +25227,10 @@
         <v>20</v>
       </c>
       <c r="R108" s="4" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="S108" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="109" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -25298,10 +25287,10 @@
         <v>20</v>
       </c>
       <c r="R109" s="4" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="S109" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="110" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -25358,10 +25347,10 @@
         <v>20</v>
       </c>
       <c r="R110" s="4" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="S110" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="111" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -25418,10 +25407,10 @@
         <v>20</v>
       </c>
       <c r="R111" s="4" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="S111" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="112" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -25478,10 +25467,10 @@
         <v>20</v>
       </c>
       <c r="R112" s="4" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="S112" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="113" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -25538,10 +25527,10 @@
         <v>20</v>
       </c>
       <c r="R113" s="4" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="S113" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="114" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -25598,10 +25587,10 @@
         <v>20</v>
       </c>
       <c r="R114" s="4" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="S114" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="115" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -25658,10 +25647,10 @@
         <v>20</v>
       </c>
       <c r="R115" s="4" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="S115" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="116" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -25718,10 +25707,10 @@
         <v>20</v>
       </c>
       <c r="R116" s="4" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="S116" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="117" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -25778,10 +25767,10 @@
         <v>20</v>
       </c>
       <c r="R117" s="4" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="S117" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="118" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -25838,10 +25827,10 @@
         <v>20</v>
       </c>
       <c r="R118" s="4" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="S118" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="119" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -25898,10 +25887,10 @@
         <v>20</v>
       </c>
       <c r="R119" s="4" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="S119" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="120" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -25958,10 +25947,10 @@
         <v>20</v>
       </c>
       <c r="R120" s="4" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="S120" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="121" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26018,10 +26007,10 @@
         <v>20</v>
       </c>
       <c r="R121" s="4" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="S121" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="122" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26078,10 +26067,10 @@
         <v>20</v>
       </c>
       <c r="R122" s="4" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="S122" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="123" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26138,10 +26127,10 @@
         <v>20</v>
       </c>
       <c r="R123" s="4" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="S123" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="124" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26198,10 +26187,10 @@
         <v>20</v>
       </c>
       <c r="R124" s="4" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="S124" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="125" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26258,10 +26247,10 @@
         <v>20</v>
       </c>
       <c r="R125" s="4" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="S125" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="126" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26318,10 +26307,10 @@
         <v>20</v>
       </c>
       <c r="R126" s="4" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="S126" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="127" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26378,10 +26367,10 @@
         <v>20</v>
       </c>
       <c r="R127" s="4" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="S127" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="128" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26438,10 +26427,10 @@
         <v>20</v>
       </c>
       <c r="R128" s="4" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="S128" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="129" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26498,10 +26487,10 @@
         <v>20</v>
       </c>
       <c r="R129" s="4" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="S129" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="130" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26558,10 +26547,10 @@
         <v>20</v>
       </c>
       <c r="R130" s="4" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="S130" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="131" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26618,10 +26607,10 @@
         <v>20</v>
       </c>
       <c r="R131" s="4" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="S131" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="132" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26678,10 +26667,10 @@
         <v>20</v>
       </c>
       <c r="R132" s="4" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="S132" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="133" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26738,10 +26727,10 @@
         <v>20</v>
       </c>
       <c r="R133" s="4" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="S133" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="134" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26798,10 +26787,10 @@
         <v>20</v>
       </c>
       <c r="R134" s="4" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="S134" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="135" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26858,10 +26847,10 @@
         <v>20</v>
       </c>
       <c r="R135" s="4" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="S135" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="136" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26918,10 +26907,10 @@
         <v>20</v>
       </c>
       <c r="R136" s="4" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="S136" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="137" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26978,10 +26967,10 @@
         <v>20</v>
       </c>
       <c r="R137" s="4" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="S137" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="138" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -27038,10 +27027,10 @@
         <v>20</v>
       </c>
       <c r="R138" s="4" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="S138" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="139" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -27098,10 +27087,10 @@
         <v>20</v>
       </c>
       <c r="R139" s="4" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="S139" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="140" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -27158,10 +27147,10 @@
         <v>20</v>
       </c>
       <c r="R140" s="4" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="S140" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="141" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -27218,10 +27207,10 @@
         <v>20</v>
       </c>
       <c r="R141" s="4" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="S141" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="142" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -27278,10 +27267,10 @@
         <v>20</v>
       </c>
       <c r="R142" s="4" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="S142" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="143" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -27338,10 +27327,10 @@
         <v>20</v>
       </c>
       <c r="R143" s="4" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="S143" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="144" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -27398,10 +27387,10 @@
         <v>20</v>
       </c>
       <c r="R144" s="4" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="S144" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="145" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -27458,10 +27447,10 @@
         <v>20</v>
       </c>
       <c r="R145" s="4" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="S145" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="146" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -27518,10 +27507,10 @@
         <v>20</v>
       </c>
       <c r="R146" s="4" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="S146" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="147" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -27578,10 +27567,10 @@
         <v>20</v>
       </c>
       <c r="R147" s="4" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="S147" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="148" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -27638,10 +27627,10 @@
         <v>20</v>
       </c>
       <c r="R148" s="4" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="S148" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="149" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -27698,10 +27687,10 @@
         <v>20</v>
       </c>
       <c r="R149" s="4" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="S149" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="150" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -27758,10 +27747,10 @@
         <v>20</v>
       </c>
       <c r="R150" s="4" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="S150" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="151" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -27818,10 +27807,10 @@
         <v>20</v>
       </c>
       <c r="R151" s="4" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="S151" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="152" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -27878,10 +27867,10 @@
         <v>20</v>
       </c>
       <c r="R152" s="4" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="S152" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="153" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -27938,10 +27927,10 @@
         <v>20</v>
       </c>
       <c r="R153" s="4" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="S153" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="154" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -27998,10 +27987,10 @@
         <v>20</v>
       </c>
       <c r="R154" s="4" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="S154" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="155" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28058,10 +28047,10 @@
         <v>20</v>
       </c>
       <c r="R155" s="4" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="S155" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="156" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28118,10 +28107,10 @@
         <v>20</v>
       </c>
       <c r="R156" s="4" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="S156" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="157" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28178,10 +28167,10 @@
         <v>20</v>
       </c>
       <c r="R157" s="4" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="S157" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="158" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -28195,9 +28184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A13392-F834-449A-93B9-ED550D33C170}">
   <dimension ref="A1:S157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -28245,7 +28232,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>302</v>
@@ -28302,7 +28289,7 @@
         <v>/code/NLG-S3/markov</v>
       </c>
       <c r="G2" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H2">
         <v>3355.0496870289899</v>
@@ -28362,7 +28349,7 @@
         <v>/code/NLG-S3/markov</v>
       </c>
       <c r="G3" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H3">
         <v>3355.0496870289899</v>
@@ -28422,7 +28409,7 @@
         <v>/code/NLG-S3/markov</v>
       </c>
       <c r="G4" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H4">
         <v>3355.0496870289899</v>
@@ -28482,7 +28469,7 @@
         <v>/code/NLG-S3/markov</v>
       </c>
       <c r="G5" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H5">
         <v>1471.79927902999</v>
@@ -28542,7 +28529,7 @@
         <v>/code/NLG-S3/markov</v>
       </c>
       <c r="G6" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H6">
         <v>1471.79927902999</v>
@@ -28602,7 +28589,7 @@
         <v>/code/NLG-S3/markov</v>
       </c>
       <c r="G7" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H7">
         <v>1471.79927902999</v>
@@ -28662,7 +28649,7 @@
         <v>/code/NLG-S3/lstm</v>
       </c>
       <c r="G8" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H8">
         <v>85003.844494347999</v>
@@ -28722,7 +28709,7 @@
         <v>/code/NLG-S3/lstm</v>
       </c>
       <c r="G9" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H9">
         <v>85003.844494347999</v>
@@ -28782,7 +28769,7 @@
         <v>/code/NLG-S3/lstm</v>
       </c>
       <c r="G10" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H10">
         <v>85003.844494347999</v>
@@ -28842,7 +28829,7 @@
         <v>/code/NLG-S3/lstm_gpu</v>
       </c>
       <c r="G11" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H11">
         <v>85590.618849530001</v>
@@ -28902,7 +28889,7 @@
         <v>/code/NLG-S3/lstm_gpu</v>
       </c>
       <c r="G12" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H12">
         <v>85590.618849530001</v>
@@ -28962,7 +28949,7 @@
         <v>/code/NLG-S3/lstm_gpu</v>
       </c>
       <c r="G13" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H13">
         <v>85590.618849530001</v>
@@ -29022,7 +29009,7 @@
         <v>/code/NLG-S3/gpt</v>
       </c>
       <c r="G14" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H14">
         <v>16068.0954078259</v>
@@ -29082,7 +29069,7 @@
         <v>/code/NLG-S3/gpt</v>
       </c>
       <c r="G15" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H15">
         <v>16068.0954078259</v>
@@ -29142,7 +29129,7 @@
         <v>/code/NLG-S3/gpt</v>
       </c>
       <c r="G16" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H16">
         <v>16068.0954078259</v>
@@ -29202,7 +29189,7 @@
         <v>/code/NLG-S3/gpt</v>
       </c>
       <c r="G17" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H17">
         <v>3627.2578113589898</v>
@@ -29262,7 +29249,7 @@
         <v>/code/NLG-S3/gpt</v>
       </c>
       <c r="G18" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H18">
         <v>3627.2578113589898</v>
@@ -29322,7 +29309,7 @@
         <v>/code/NLG-S3/gpt</v>
       </c>
       <c r="G19" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H19">
         <v>3627.2578113589898</v>
@@ -29382,7 +29369,7 @@
         <v>/code/NLG-S3/gptfine</v>
       </c>
       <c r="G20" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H20">
         <v>15579.4333740969</v>
@@ -29442,7 +29429,7 @@
         <v>/code/NLG-S3/gptfine</v>
       </c>
       <c r="G21" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H21">
         <v>15579.4333740969</v>
@@ -29502,7 +29489,7 @@
         <v>/code/NLG-S3/gptfine</v>
       </c>
       <c r="G22" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H22">
         <v>15579.4333740969</v>
@@ -29562,7 +29549,7 @@
         <v>/code/NLG-S3/gptfine</v>
       </c>
       <c r="G23" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H23">
         <v>5349.3007802120001</v>
@@ -29622,7 +29609,7 @@
         <v>/code/NLG-S3/gptfine</v>
       </c>
       <c r="G24" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H24">
         <v>5349.3007802120001</v>
@@ -29682,7 +29669,7 @@
         <v>/code/NLG-S3/gptfine</v>
       </c>
       <c r="G25" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H25">
         <v>5349.3007802120001</v>
@@ -29742,7 +29729,7 @@
         <v>/code/TS1-S3</v>
       </c>
       <c r="G28" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H28">
         <v>283.303837112</v>
@@ -29802,7 +29789,7 @@
         <v>/code/TS1-S3</v>
       </c>
       <c r="G29" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H29">
         <v>283.303837112</v>
@@ -29862,7 +29849,7 @@
         <v>/code/TS1-S3</v>
       </c>
       <c r="G30" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H30">
         <v>283.303837112</v>
@@ -29922,7 +29909,7 @@
         <v>/code/TS1-S3</v>
       </c>
       <c r="G31" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H31">
         <v>242.360415123</v>
@@ -29982,7 +29969,7 @@
         <v>/code/TS1-S3</v>
       </c>
       <c r="G32" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H32">
         <v>242.360415123</v>
@@ -30042,7 +30029,7 @@
         <v>/code/TS1-S3</v>
       </c>
       <c r="G33" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H33">
         <v>242.360415123</v>
@@ -30102,7 +30089,7 @@
         <v>/code/TS1-S3</v>
       </c>
       <c r="G34" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H34">
         <v>4284.718199035</v>
@@ -30162,7 +30149,7 @@
         <v>/code/TS1-S3</v>
       </c>
       <c r="G35" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H35">
         <v>4284.718199035</v>
@@ -30222,7 +30209,7 @@
         <v>/code/TS1-S3</v>
       </c>
       <c r="G36" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H36">
         <v>4284.718199035</v>
@@ -30282,7 +30269,7 @@
         <v>/code/TS1-S3</v>
       </c>
       <c r="G37" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H37">
         <v>2386.3087828129901</v>
@@ -30342,7 +30329,7 @@
         <v>/code/TS1-S3</v>
       </c>
       <c r="G38" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H38">
         <v>2386.3087828129901</v>
@@ -30402,7 +30389,7 @@
         <v>/code/TS1-S3</v>
       </c>
       <c r="G39" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H39">
         <v>2386.3087828129901</v>
@@ -30462,7 +30449,7 @@
         <v>/code/TS1-S3</v>
       </c>
       <c r="G40" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H40">
         <v>8900.7688035200008</v>
@@ -30522,7 +30509,7 @@
         <v>/code/TS1-S3</v>
       </c>
       <c r="G41" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H41">
         <v>8900.7688035200008</v>
@@ -30582,7 +30569,7 @@
         <v>/code/TS1-S3</v>
       </c>
       <c r="G42" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H42">
         <v>8900.7688035200008</v>
@@ -30642,7 +30629,7 @@
         <v>/code/TS1-S3</v>
       </c>
       <c r="G43" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H43">
         <v>3652.6855469779998</v>
@@ -30702,7 +30689,7 @@
         <v>/code/TS1-S3</v>
       </c>
       <c r="G44" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H44">
         <v>3652.6855469779998</v>
@@ -30762,7 +30749,7 @@
         <v>/code/TS1-S3</v>
       </c>
       <c r="G45" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H45">
         <v>3652.6855469779998</v>
@@ -30822,7 +30809,7 @@
         <v>/code/TS1-S3</v>
       </c>
       <c r="G46" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H46">
         <v>5648.9551871949898</v>
@@ -30882,7 +30869,7 @@
         <v>/code/TS1-S3</v>
       </c>
       <c r="G47" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H47">
         <v>5648.9551871949898</v>
@@ -30942,7 +30929,7 @@
         <v>/code/TS1-S3</v>
       </c>
       <c r="G48" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H48">
         <v>5648.9551871949898</v>
@@ -31002,7 +30989,7 @@
         <v>/code/TS1-S3</v>
       </c>
       <c r="G49" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H49">
         <v>3772.9287908319998</v>
@@ -31062,7 +31049,7 @@
         <v>/code/TS1-S3</v>
       </c>
       <c r="G50" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H50">
         <v>3772.9287908319998</v>
@@ -31122,7 +31109,7 @@
         <v>/code/TS1-S3</v>
       </c>
       <c r="G51" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H51">
         <v>3772.9287908319998</v>
@@ -31182,7 +31169,7 @@
         <v>/code/TS1-S3</v>
       </c>
       <c r="G52" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H52">
         <v>4098.8777732769904</v>
@@ -31242,7 +31229,7 @@
         <v>/code/TS1-S3</v>
       </c>
       <c r="G53" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H53">
         <v>4098.8777732769904</v>
@@ -31302,7 +31289,7 @@
         <v>/code/TS1-S3</v>
       </c>
       <c r="G54" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H54">
         <v>4098.8777732769904</v>
@@ -31362,7 +31349,7 @@
         <v>/code/TS1-S3</v>
       </c>
       <c r="G55" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H55">
         <v>2966.27750796399</v>
@@ -31422,7 +31409,7 @@
         <v>/code/TS1-S3</v>
       </c>
       <c r="G56" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H56">
         <v>2966.27750796399</v>
@@ -31482,7 +31469,7 @@
         <v>/code/TS1-S3</v>
       </c>
       <c r="G57" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H57">
         <v>2966.27750796399</v>
@@ -31542,7 +31529,7 @@
         <v>/code/TS2-S3/lex</v>
       </c>
       <c r="G60" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H60">
         <v>63.4280409269995</v>
@@ -31602,7 +31589,7 @@
         <v>/code/TS2-S3/lex</v>
       </c>
       <c r="G61" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H61">
         <v>63.4280409269995</v>
@@ -31662,7 +31649,7 @@
         <v>/code/TS2-S3/lex</v>
       </c>
       <c r="G62" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H62">
         <v>63.4280409269995</v>
@@ -31722,7 +31709,7 @@
         <v>/code/TS2-S3/bert2bert</v>
       </c>
       <c r="G63" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H63">
         <v>1480.9923544119999</v>
@@ -31782,7 +31769,7 @@
         <v>/code/TS2-S3/bert2bert</v>
       </c>
       <c r="G64" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H64">
         <v>1480.9923544119999</v>
@@ -31842,7 +31829,7 @@
         <v>/code/TS2-S3/bert2bert</v>
       </c>
       <c r="G65" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H65">
         <v>1480.9923544119999</v>
@@ -31902,7 +31889,7 @@
         <v>/code/TS2-S3/bert2bert</v>
       </c>
       <c r="G66" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H66">
         <v>387.47260097399999</v>
@@ -31962,7 +31949,7 @@
         <v>/code/TS2-S3/bert2bert</v>
       </c>
       <c r="G67" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H67">
         <v>387.47260097399999</v>
@@ -32022,7 +32009,7 @@
         <v>/code/TS2-S3/bert2bert</v>
       </c>
       <c r="G68" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H68">
         <v>387.47260097399999</v>
@@ -32082,7 +32069,7 @@
         <v>/code/TS2-S3/mlong</v>
       </c>
       <c r="G69" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H69">
         <v>18414.631976744</v>
@@ -32142,7 +32129,7 @@
         <v>/code/TS2-S3/mlong</v>
       </c>
       <c r="G70" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H70">
         <v>18414.631976744</v>
@@ -32202,7 +32189,7 @@
         <v>/code/TS2-S3/mlong</v>
       </c>
       <c r="G71" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H71">
         <v>18414.631976744</v>
@@ -32262,7 +32249,7 @@
         <v>/code/TS2-S3/mlong</v>
       </c>
       <c r="G72" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H72">
         <v>2209.0436586239898</v>
@@ -32322,7 +32309,7 @@
         <v>/code/TS2-S3/mlong</v>
       </c>
       <c r="G73" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H73">
         <v>2209.0436586239898</v>
@@ -32382,7 +32369,7 @@
         <v>/code/TS2-S3/mlong</v>
       </c>
       <c r="G74" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H74">
         <v>2209.0436586239898</v>
@@ -32442,7 +32429,7 @@
         <v>/code/TS2-S3/mixtral</v>
       </c>
       <c r="G75" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H75">
         <v>42375.671860100003</v>
@@ -32502,7 +32489,7 @@
         <v>/code/TS2-S3/mixtral</v>
       </c>
       <c r="G76" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H76">
         <v>42375.671860100003</v>
@@ -32562,7 +32549,7 @@
         <v>/code/TS2-S3/mixtral</v>
       </c>
       <c r="G77" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H77">
         <v>42375.671860100003</v>
@@ -32622,7 +32609,7 @@
         <v>/code/TS2-S3/mixtral</v>
       </c>
       <c r="G78" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H78" s="5">
         <v>11735.2418805999</v>
@@ -32682,7 +32669,7 @@
         <v>/code/TS2-S3/mixtral</v>
       </c>
       <c r="G79" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H79" s="5">
         <v>11735.2418805999</v>
@@ -32742,7 +32729,7 @@
         <v>/code/TS2-S3/mixtral</v>
       </c>
       <c r="G80" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H80" s="5">
         <v>11735.2418805999</v>
